--- a/Civilworks cost/Dighikhanan/output.xlsx
+++ b/Civilworks cost/Dighikhanan/output.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Dighikhanan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="original_input" sheetId="1" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <sheet name="Circle_summary" sheetId="8" r:id="rId8"/>
     <sheet name="Zone_summary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="158">
   <si>
     <t>District Code</t>
   </si>
@@ -551,8 +546,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,13 +599,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,14 +610,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -672,7 +656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,10 +688,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,7 +722,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,14 +897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1007,7 +989,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1051,7 +1033,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1095,7 +1077,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1139,7 +1121,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1171,19 +1153,19 @@
         <v>129</v>
       </c>
       <c r="K6">
-        <v>2932.3449999999998</v>
+        <v>2932.345</v>
       </c>
       <c r="L6">
         <v>127.88</v>
       </c>
       <c r="M6">
-        <v>374988.27860000002</v>
+        <v>374988.2786</v>
       </c>
       <c r="N6">
         <v>4111310</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1215,19 +1197,19 @@
         <v>130</v>
       </c>
       <c r="K7">
-        <v>2932.3449999999998</v>
+        <v>2932.345</v>
       </c>
       <c r="L7">
         <v>40.14</v>
       </c>
       <c r="M7">
-        <v>117704.32829999999</v>
+        <v>117704.3283</v>
       </c>
       <c r="N7">
         <v>4111310</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1271,7 +1253,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1309,13 +1291,13 @@
         <v>31.29</v>
       </c>
       <c r="M9">
-        <v>93081.491999999998</v>
+        <v>93081.492</v>
       </c>
       <c r="N9">
         <v>4111310</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1347,19 +1329,19 @@
         <v>129</v>
       </c>
       <c r="K10">
-        <v>147.81590060086981</v>
+        <v>147.8159006008698</v>
       </c>
       <c r="L10">
         <v>555.73</v>
       </c>
       <c r="M10">
-        <v>82145.730440921368</v>
+        <v>82145.73044092137</v>
       </c>
       <c r="N10">
         <v>4111310</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1391,19 +1373,19 @@
         <v>129</v>
       </c>
       <c r="K11">
-        <v>147.81590060086981</v>
+        <v>147.8159006008698</v>
       </c>
       <c r="L11">
         <v>49.09</v>
       </c>
       <c r="M11">
-        <v>7256.2825604966984</v>
+        <v>7256.282560496698</v>
       </c>
       <c r="N11">
         <v>4111310</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1435,19 +1417,19 @@
         <v>129</v>
       </c>
       <c r="K12">
-        <v>948.07148999999993</v>
+        <v>948.0714899999999</v>
       </c>
       <c r="L12">
         <v>247.75</v>
       </c>
       <c r="M12">
-        <v>234884.71164749999</v>
+        <v>234884.7116475</v>
       </c>
       <c r="N12">
         <v>4111317</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1491,7 +1473,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1529,13 +1511,13 @@
         <v>1710.21</v>
       </c>
       <c r="M14">
-        <v>415619.16768299998</v>
+        <v>415619.167683</v>
       </c>
       <c r="N14">
         <v>4111317</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1567,19 +1549,19 @@
         <v>131</v>
       </c>
       <c r="K15">
-        <v>5.3999999999999986</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="L15">
         <v>467.54</v>
       </c>
       <c r="M15">
-        <v>2524.7159999999999</v>
+        <v>2524.716</v>
       </c>
       <c r="N15">
         <v>4111317</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1617,13 +1599,13 @@
         <v>7719.47</v>
       </c>
       <c r="M16">
-        <v>306283.34623177501</v>
+        <v>306283.346231775</v>
       </c>
       <c r="N16">
         <v>4111317</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1661,13 +1643,13 @@
         <v>213.99</v>
       </c>
       <c r="M17">
-        <v>6414.0570836999996</v>
+        <v>6414.0570837</v>
       </c>
       <c r="N17">
         <v>4111317</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1705,13 +1687,13 @@
         <v>414.5</v>
       </c>
       <c r="M18">
-        <v>50388.692500000012</v>
+        <v>50388.69250000001</v>
       </c>
       <c r="N18">
         <v>4111317</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1755,7 +1737,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1793,13 +1775,13 @@
         <v>11792.23</v>
       </c>
       <c r="M20">
-        <v>197297.56896450001</v>
+        <v>197297.5689645</v>
       </c>
       <c r="N20">
         <v>4111317</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1837,13 +1819,13 @@
         <v>103.13</v>
       </c>
       <c r="M21">
-        <v>4724037.6779702334</v>
+        <v>4724037.677970233</v>
       </c>
       <c r="N21">
         <v>4111317</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1881,13 +1863,13 @@
         <v>163.18</v>
       </c>
       <c r="M22">
-        <v>1779.5594900000001</v>
+        <v>1779.55949</v>
       </c>
       <c r="N22">
         <v>4111317</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1919,19 +1901,19 @@
         <v>129</v>
       </c>
       <c r="K23">
-        <v>538.57632699999999</v>
+        <v>538.576327</v>
       </c>
       <c r="L23">
         <v>15521.62</v>
       </c>
       <c r="M23">
-        <v>8359577.0886897407</v>
+        <v>8359577.088689741</v>
       </c>
       <c r="N23">
         <v>4111317</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1963,7 +1945,7 @@
         <v>131</v>
       </c>
       <c r="K24">
-        <v>1098.3743809407999</v>
+        <v>1098.3743809408</v>
       </c>
       <c r="L24">
         <v>959.85</v>
@@ -1975,7 +1957,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2007,19 +1989,19 @@
         <v>131</v>
       </c>
       <c r="K25">
-        <v>1665.2315060000001</v>
+        <v>1665.231506</v>
       </c>
       <c r="L25">
         <v>1187.98</v>
       </c>
       <c r="M25">
-        <v>1978261.7244978801</v>
+        <v>1978261.72449788</v>
       </c>
       <c r="N25">
         <v>4111317</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2063,7 +2045,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2101,13 +2083,13 @@
         <v>1232.97</v>
       </c>
       <c r="M27">
-        <v>39455.040000000001</v>
+        <v>39455.04</v>
       </c>
       <c r="N27">
         <v>4111317</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2145,13 +2127,13 @@
         <v>881.76</v>
       </c>
       <c r="M28">
-        <v>338595.84000000003</v>
+        <v>338595.84</v>
       </c>
       <c r="N28">
         <v>4111317</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2189,13 +2171,13 @@
         <v>3735.58</v>
       </c>
       <c r="M29">
-        <v>6546.5292384000004</v>
+        <v>6546.5292384</v>
       </c>
       <c r="N29">
         <v>4111317</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2239,7 +2221,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2277,13 +2259,13 @@
         <v>1452.75</v>
       </c>
       <c r="M31">
-        <v>36260.640000000007</v>
+        <v>36260.64000000001</v>
       </c>
       <c r="N31">
         <v>4111317</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2321,13 +2303,13 @@
         <v>13441.59</v>
       </c>
       <c r="M32">
-        <v>22599.815722650001</v>
+        <v>22599.81572265</v>
       </c>
       <c r="N32">
         <v>4111317</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2371,7 +2353,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2403,7 +2385,7 @@
         <v>131</v>
       </c>
       <c r="K34">
-        <v>61.325599999999987</v>
+        <v>61.32559999999999</v>
       </c>
       <c r="L34">
         <v>1854.18</v>
@@ -2415,7 +2397,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2447,19 +2429,19 @@
         <v>131</v>
       </c>
       <c r="K35">
-        <v>41.497800000000012</v>
+        <v>41.49780000000001</v>
       </c>
       <c r="L35">
         <v>1993.75</v>
       </c>
       <c r="M35">
-        <v>82736.238750000004</v>
+        <v>82736.23875</v>
       </c>
       <c r="N35">
         <v>4111317</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2503,7 +2485,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2535,7 +2517,7 @@
         <v>129</v>
       </c>
       <c r="K37">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="L37">
         <v>8693.74</v>
@@ -2547,7 +2529,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2582,16 +2564,16 @@
         <v>3.99</v>
       </c>
       <c r="L38">
-        <v>9057.36</v>
+        <v>9057.360000000001</v>
       </c>
       <c r="M38">
-        <v>36138.866400000014</v>
+        <v>36138.86640000001</v>
       </c>
       <c r="N38">
         <v>4111317</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2623,19 +2605,19 @@
         <v>129</v>
       </c>
       <c r="K39">
-        <v>2.1414374999999999</v>
+        <v>2.1414375</v>
       </c>
       <c r="L39">
-        <v>2125.0500000000002</v>
+        <v>2125.05</v>
       </c>
       <c r="M39">
-        <v>4550.6617593749997</v>
+        <v>4550.661759375</v>
       </c>
       <c r="N39">
         <v>4111317</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2673,13 +2655,13 @@
         <v>759.47</v>
       </c>
       <c r="M40">
-        <v>10626.883975000001</v>
+        <v>10626.883975</v>
       </c>
       <c r="N40">
         <v>4111317</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2717,13 +2699,13 @@
         <v>381.38</v>
       </c>
       <c r="M41">
-        <v>457.65600000000001</v>
+        <v>457.656</v>
       </c>
       <c r="N41">
         <v>4111317</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2755,7 +2737,7 @@
         <v>133</v>
       </c>
       <c r="K42">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
         <v>120</v>
@@ -2767,7 +2749,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2811,7 +2793,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2849,13 +2831,13 @@
         <v>386.89</v>
       </c>
       <c r="M44">
-        <v>5687.2829999999994</v>
+        <v>5687.282999999999</v>
       </c>
       <c r="N44">
         <v>4111317</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2899,7 +2881,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2943,7 +2925,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2987,7 +2969,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3031,7 +3013,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3075,7 +3057,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3119,7 +3101,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3157,13 +3139,13 @@
         <v>33.94</v>
       </c>
       <c r="M51">
-        <v>63053.053200000002</v>
+        <v>63053.0532</v>
       </c>
       <c r="N51">
         <v>4111317</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3207,7 +3189,7 @@
         <v>4113102</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3251,7 +3233,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3295,7 +3277,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3339,7 +3321,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3383,7 +3365,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3427,7 +3409,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3459,19 +3441,19 @@
         <v>129</v>
       </c>
       <c r="K58">
-        <v>4198.7879999999996</v>
+        <v>4198.788</v>
       </c>
       <c r="L58">
         <v>127.88</v>
       </c>
       <c r="M58">
-        <v>536941.00944000005</v>
+        <v>536941.0094400001</v>
       </c>
       <c r="N58">
         <v>4111310</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3503,7 +3485,7 @@
         <v>130</v>
       </c>
       <c r="K59">
-        <v>4198.7879999999996</v>
+        <v>4198.788</v>
       </c>
       <c r="L59">
         <v>40.14</v>
@@ -3515,7 +3497,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3559,7 +3541,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3597,13 +3579,13 @@
         <v>31.29</v>
       </c>
       <c r="M61">
-        <v>106645.33152000001</v>
+        <v>106645.33152</v>
       </c>
       <c r="N61">
         <v>4111310</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3635,7 +3617,7 @@
         <v>129</v>
       </c>
       <c r="K62">
-        <v>198.16922616211571</v>
+        <v>198.1692261621157</v>
       </c>
       <c r="L62">
         <v>555.73</v>
@@ -3647,7 +3629,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3679,19 +3661,19 @@
         <v>129</v>
       </c>
       <c r="K63">
-        <v>198.16922616211571</v>
+        <v>198.1692261621157</v>
       </c>
       <c r="L63">
         <v>49.09</v>
       </c>
       <c r="M63">
-        <v>9728.1273122982602</v>
+        <v>9728.12731229826</v>
       </c>
       <c r="N63">
         <v>4111310</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3729,13 +3711,13 @@
         <v>247.75</v>
       </c>
       <c r="M64">
-        <v>247861.54696000001</v>
+        <v>247861.54696</v>
       </c>
       <c r="N64">
         <v>4111317</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3779,7 +3761,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3811,19 +3793,19 @@
         <v>129</v>
       </c>
       <c r="K66">
-        <v>255.87129999999999</v>
+        <v>255.8713</v>
       </c>
       <c r="L66">
         <v>1710.21</v>
       </c>
       <c r="M66">
-        <v>437593.65597299999</v>
+        <v>437593.655973</v>
       </c>
       <c r="N66">
         <v>4111317</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3855,19 +3837,19 @@
         <v>131</v>
       </c>
       <c r="K67">
-        <v>5.3999999999999986</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="L67">
         <v>467.54</v>
       </c>
       <c r="M67">
-        <v>2524.7159999999999</v>
+        <v>2524.716</v>
       </c>
       <c r="N67">
         <v>4111317</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3899,19 +3881,19 @@
         <v>129</v>
       </c>
       <c r="K68">
-        <v>42.196732500000003</v>
+        <v>42.1967325</v>
       </c>
       <c r="L68">
         <v>7719.47</v>
       </c>
       <c r="M68">
-        <v>325736.41063177498</v>
+        <v>325736.410631775</v>
       </c>
       <c r="N68">
         <v>4111317</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3949,13 +3931,13 @@
         <v>213.99</v>
       </c>
       <c r="M69">
-        <v>6414.0570836999996</v>
+        <v>6414.0570837</v>
       </c>
       <c r="N69">
         <v>4111317</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3993,13 +3975,13 @@
         <v>414.5</v>
       </c>
       <c r="M70">
-        <v>50388.692500000012</v>
+        <v>50388.69250000001</v>
       </c>
       <c r="N70">
         <v>4111317</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4043,7 +4025,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4075,19 +4057,19 @@
         <v>129</v>
       </c>
       <c r="K72">
-        <v>21.937087500000001</v>
+        <v>21.9370875</v>
       </c>
       <c r="L72">
         <v>11792.23</v>
       </c>
       <c r="M72">
-        <v>258687.18133012511</v>
+        <v>258687.1813301251</v>
       </c>
       <c r="N72">
         <v>4111317</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4119,19 +4101,19 @@
         <v>132</v>
       </c>
       <c r="K73">
-        <v>49985.633344100053</v>
+        <v>49985.63334410005</v>
       </c>
       <c r="L73">
         <v>103.13</v>
       </c>
       <c r="M73">
-        <v>5155018.3667770373</v>
+        <v>5155018.366777037</v>
       </c>
       <c r="N73">
         <v>4111317</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4169,13 +4151,13 @@
         <v>163.18</v>
       </c>
       <c r="M74">
-        <v>1779.5594900000001</v>
+        <v>1779.55949</v>
       </c>
       <c r="N74">
         <v>4111317</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4207,19 +4189,19 @@
         <v>129</v>
       </c>
       <c r="K75">
-        <v>558.37942300000009</v>
+        <v>558.3794230000001</v>
       </c>
       <c r="L75">
         <v>15521.62</v>
       </c>
       <c r="M75">
-        <v>8666953.2196252625</v>
+        <v>8666953.219625263</v>
       </c>
       <c r="N75">
         <v>4111317</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4257,13 +4239,13 @@
         <v>959.85</v>
       </c>
       <c r="M76">
-        <v>1272978.8452467411</v>
+        <v>1272978.845246741</v>
       </c>
       <c r="N76">
         <v>4111317</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4301,13 +4283,13 @@
         <v>1187.98</v>
       </c>
       <c r="M77">
-        <v>2435340.5079033198</v>
+        <v>2435340.50790332</v>
       </c>
       <c r="N77">
         <v>4111317</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4351,7 +4333,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4389,13 +4371,13 @@
         <v>1232.97</v>
       </c>
       <c r="M79">
-        <v>39455.040000000001</v>
+        <v>39455.04</v>
       </c>
       <c r="N79">
         <v>4111317</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4433,13 +4415,13 @@
         <v>881.76</v>
       </c>
       <c r="M80">
-        <v>338595.84000000003</v>
+        <v>338595.84</v>
       </c>
       <c r="N80">
         <v>4111317</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4477,13 +4459,13 @@
         <v>3735.58</v>
       </c>
       <c r="M81">
-        <v>6546.5292384000004</v>
+        <v>6546.5292384</v>
       </c>
       <c r="N81">
         <v>4111317</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4527,7 +4509,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4559,19 +4541,19 @@
         <v>129</v>
       </c>
       <c r="K83">
-        <v>32.768000000000008</v>
+        <v>32.76800000000001</v>
       </c>
       <c r="L83">
         <v>1452.75</v>
       </c>
       <c r="M83">
-        <v>47603.712000000007</v>
+        <v>47603.71200000001</v>
       </c>
       <c r="N83">
         <v>4111317</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4603,19 +4585,19 @@
         <v>129</v>
       </c>
       <c r="K84">
-        <v>2.3158349999999999</v>
+        <v>2.315835</v>
       </c>
       <c r="L84">
         <v>13441.59</v>
       </c>
       <c r="M84">
-        <v>31128.504577650001</v>
+        <v>31128.50457765</v>
       </c>
       <c r="N84">
         <v>4111317</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4659,7 +4641,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4691,19 +4673,19 @@
         <v>131</v>
       </c>
       <c r="K86">
-        <v>81.231999999999999</v>
+        <v>81.232</v>
       </c>
       <c r="L86">
         <v>1854.18</v>
       </c>
       <c r="M86">
-        <v>150618.74976000001</v>
+        <v>150618.74976</v>
       </c>
       <c r="N86">
         <v>4111317</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4735,7 +4717,7 @@
         <v>131</v>
       </c>
       <c r="K87">
-        <v>55.297800000000002</v>
+        <v>55.2978</v>
       </c>
       <c r="L87">
         <v>1993.75</v>
@@ -4747,7 +4729,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4791,7 +4773,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4823,7 +4805,7 @@
         <v>129</v>
       </c>
       <c r="K89">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="L89">
         <v>8693.74</v>
@@ -4835,7 +4817,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4870,16 +4852,16 @@
         <v>3.99</v>
       </c>
       <c r="L90">
-        <v>9057.36</v>
+        <v>9057.360000000001</v>
       </c>
       <c r="M90">
-        <v>36138.866400000014</v>
+        <v>36138.86640000001</v>
       </c>
       <c r="N90">
         <v>4111317</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4911,19 +4893,19 @@
         <v>129</v>
       </c>
       <c r="K91">
-        <v>2.7489374999999998</v>
+        <v>2.7489375</v>
       </c>
       <c r="L91">
-        <v>2125.0500000000002</v>
+        <v>2125.05</v>
       </c>
       <c r="M91">
-        <v>5841.6296343750009</v>
+        <v>5841.629634375001</v>
       </c>
       <c r="N91">
         <v>4111317</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4961,13 +4943,13 @@
         <v>759.47</v>
       </c>
       <c r="M92">
-        <v>10626.883975000001</v>
+        <v>10626.883975</v>
       </c>
       <c r="N92">
         <v>4111317</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5005,13 +4987,13 @@
         <v>381.38</v>
       </c>
       <c r="M93">
-        <v>457.65600000000001</v>
+        <v>457.656</v>
       </c>
       <c r="N93">
         <v>4111317</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5043,7 +5025,7 @@
         <v>133</v>
       </c>
       <c r="K94">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
         <v>120</v>
@@ -5055,7 +5037,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5099,7 +5081,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5137,13 +5119,13 @@
         <v>386.89</v>
       </c>
       <c r="M96">
-        <v>5687.2829999999994</v>
+        <v>5687.282999999999</v>
       </c>
       <c r="N96">
         <v>4111317</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5187,7 +5169,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5231,7 +5213,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5275,7 +5257,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5319,7 +5301,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5363,7 +5345,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5407,7 +5389,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5445,13 +5427,13 @@
         <v>33.94</v>
       </c>
       <c r="M103">
-        <v>63053.053200000002</v>
+        <v>63053.0532</v>
       </c>
       <c r="N103">
         <v>4111317</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5495,7 +5477,7 @@
         <v>4113102</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5539,7 +5521,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5583,7 +5565,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5627,7 +5609,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5671,7 +5653,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5715,7 +5697,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5747,19 +5729,19 @@
         <v>129</v>
       </c>
       <c r="K110">
-        <v>3327.2930000000001</v>
+        <v>3327.293</v>
       </c>
       <c r="L110">
         <v>127.88</v>
       </c>
       <c r="M110">
-        <v>425494.22883999988</v>
+        <v>425494.2288399999</v>
       </c>
       <c r="N110">
         <v>4111310</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5791,7 +5773,7 @@
         <v>130</v>
       </c>
       <c r="K111">
-        <v>3327.2930000000001</v>
+        <v>3327.293</v>
       </c>
       <c r="L111">
         <v>40.14</v>
@@ -5803,7 +5785,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5847,7 +5829,7 @@
         <v>4111310</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5885,13 +5867,13 @@
         <v>31.29</v>
       </c>
       <c r="M113">
-        <v>82614.611519999977</v>
+        <v>82614.61151999998</v>
       </c>
       <c r="N113">
         <v>4111310</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5923,19 +5905,19 @@
         <v>129</v>
       </c>
       <c r="K114">
-        <v>147.81590060086981</v>
+        <v>147.8159006008698</v>
       </c>
       <c r="L114">
         <v>555.73</v>
       </c>
       <c r="M114">
-        <v>82145.730440921368</v>
+        <v>82145.73044092137</v>
       </c>
       <c r="N114">
         <v>4111310</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5967,19 +5949,19 @@
         <v>129</v>
       </c>
       <c r="K115">
-        <v>147.81590060086981</v>
+        <v>147.8159006008698</v>
       </c>
       <c r="L115">
         <v>49.09</v>
       </c>
       <c r="M115">
-        <v>7256.2825604966984</v>
+        <v>7256.282560496698</v>
       </c>
       <c r="N115">
         <v>4111310</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6011,19 +5993,19 @@
         <v>129</v>
       </c>
       <c r="K116">
-        <v>935.01548999999989</v>
+        <v>935.0154899999999</v>
       </c>
       <c r="L116">
         <v>247.75</v>
       </c>
       <c r="M116">
-        <v>231650.08764750001</v>
+        <v>231650.0876475</v>
       </c>
       <c r="N116">
         <v>4111317</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6067,7 +6049,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6099,19 +6081,19 @@
         <v>129</v>
       </c>
       <c r="K118">
-        <v>238.12629999999999</v>
+        <v>238.1263</v>
       </c>
       <c r="L118">
         <v>1710.21</v>
       </c>
       <c r="M118">
-        <v>407245.97952300002</v>
+        <v>407245.979523</v>
       </c>
       <c r="N118">
         <v>4111317</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6143,19 +6125,19 @@
         <v>131</v>
       </c>
       <c r="K119">
-        <v>5.3999999999999986</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="L119">
         <v>467.54</v>
       </c>
       <c r="M119">
-        <v>2524.7159999999999</v>
+        <v>2524.716</v>
       </c>
       <c r="N119">
         <v>4111317</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6193,13 +6175,13 @@
         <v>7719.47</v>
       </c>
       <c r="M120">
-        <v>306283.34623177501</v>
+        <v>306283.346231775</v>
       </c>
       <c r="N120">
         <v>4111317</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6237,13 +6219,13 @@
         <v>213.99</v>
       </c>
       <c r="M121">
-        <v>6414.0570836999996</v>
+        <v>6414.0570837</v>
       </c>
       <c r="N121">
         <v>4111317</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6281,13 +6263,13 @@
         <v>414.5</v>
       </c>
       <c r="M122">
-        <v>50388.692500000012</v>
+        <v>50388.69250000001</v>
       </c>
       <c r="N122">
         <v>4111317</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6331,7 +6313,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6369,13 +6351,13 @@
         <v>11792.23</v>
       </c>
       <c r="M124">
-        <v>197297.56896450001</v>
+        <v>197297.5689645</v>
       </c>
       <c r="N124">
         <v>4111317</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6413,13 +6395,13 @@
         <v>103.13</v>
       </c>
       <c r="M125">
-        <v>4724037.6779702334</v>
+        <v>4724037.677970233</v>
       </c>
       <c r="N125">
         <v>4111317</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6457,13 +6439,13 @@
         <v>163.18</v>
       </c>
       <c r="M126">
-        <v>1779.5594900000001</v>
+        <v>1779.55949</v>
       </c>
       <c r="N126">
         <v>4111317</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6495,19 +6477,19 @@
         <v>129</v>
       </c>
       <c r="K127">
-        <v>517.55358699999999</v>
+        <v>517.553587</v>
       </c>
       <c r="L127">
         <v>15521.62</v>
       </c>
       <c r="M127">
-        <v>8033270.1070509404</v>
+        <v>8033270.10705094</v>
       </c>
       <c r="N127">
         <v>4111317</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6539,7 +6521,7 @@
         <v>131</v>
       </c>
       <c r="K128">
-        <v>1098.3743809407999</v>
+        <v>1098.3743809408</v>
       </c>
       <c r="L128">
         <v>959.85</v>
@@ -6551,7 +6533,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6583,19 +6565,19 @@
         <v>131</v>
       </c>
       <c r="K129">
-        <v>1665.2315060000001</v>
+        <v>1665.231506</v>
       </c>
       <c r="L129">
         <v>1187.98</v>
       </c>
       <c r="M129">
-        <v>1978261.7244978801</v>
+        <v>1978261.72449788</v>
       </c>
       <c r="N129">
         <v>4111317</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6639,7 +6621,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6677,13 +6659,13 @@
         <v>1232.97</v>
       </c>
       <c r="M131">
-        <v>39455.040000000001</v>
+        <v>39455.04</v>
       </c>
       <c r="N131">
         <v>4111317</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6721,13 +6703,13 @@
         <v>881.76</v>
       </c>
       <c r="M132">
-        <v>338595.84000000003</v>
+        <v>338595.84</v>
       </c>
       <c r="N132">
         <v>4111317</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6765,13 +6747,13 @@
         <v>3735.58</v>
       </c>
       <c r="M133">
-        <v>6546.5292384000004</v>
+        <v>6546.5292384</v>
       </c>
       <c r="N133">
         <v>4111317</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6815,7 +6797,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6853,13 +6835,13 @@
         <v>1452.75</v>
       </c>
       <c r="M135">
-        <v>36260.640000000007</v>
+        <v>36260.64000000001</v>
       </c>
       <c r="N135">
         <v>4111317</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6897,13 +6879,13 @@
         <v>13441.59</v>
       </c>
       <c r="M136">
-        <v>22599.815722650001</v>
+        <v>22599.81572265</v>
       </c>
       <c r="N136">
         <v>4111317</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6947,7 +6929,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6979,7 +6961,7 @@
         <v>131</v>
       </c>
       <c r="K138">
-        <v>61.325599999999987</v>
+        <v>61.32559999999999</v>
       </c>
       <c r="L138">
         <v>1854.18</v>
@@ -6991,7 +6973,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7023,19 +7005,19 @@
         <v>131</v>
       </c>
       <c r="K139">
-        <v>41.497800000000012</v>
+        <v>41.49780000000001</v>
       </c>
       <c r="L139">
         <v>1993.75</v>
       </c>
       <c r="M139">
-        <v>82736.238750000004</v>
+        <v>82736.23875</v>
       </c>
       <c r="N139">
         <v>4111317</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7079,7 +7061,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7111,7 +7093,7 @@
         <v>129</v>
       </c>
       <c r="K141">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="L141">
         <v>8693.74</v>
@@ -7123,7 +7105,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7158,16 +7140,16 @@
         <v>3.99</v>
       </c>
       <c r="L142">
-        <v>9057.36</v>
+        <v>9057.360000000001</v>
       </c>
       <c r="M142">
-        <v>36138.866400000014</v>
+        <v>36138.86640000001</v>
       </c>
       <c r="N142">
         <v>4111317</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7199,19 +7181,19 @@
         <v>129</v>
       </c>
       <c r="K143">
-        <v>2.1414374999999999</v>
+        <v>2.1414375</v>
       </c>
       <c r="L143">
-        <v>2125.0500000000002</v>
+        <v>2125.05</v>
       </c>
       <c r="M143">
-        <v>4550.6617593749997</v>
+        <v>4550.661759375</v>
       </c>
       <c r="N143">
         <v>4111317</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7249,13 +7231,13 @@
         <v>759.47</v>
       </c>
       <c r="M144">
-        <v>10626.883975000001</v>
+        <v>10626.883975</v>
       </c>
       <c r="N144">
         <v>4111317</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7293,13 +7275,13 @@
         <v>381.38</v>
       </c>
       <c r="M145">
-        <v>457.65600000000001</v>
+        <v>457.656</v>
       </c>
       <c r="N145">
         <v>4111317</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7331,7 +7313,7 @@
         <v>133</v>
       </c>
       <c r="K146">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L146">
         <v>120</v>
@@ -7343,7 +7325,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7387,7 +7369,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7425,13 +7407,13 @@
         <v>386.89</v>
       </c>
       <c r="M148">
-        <v>5687.2829999999994</v>
+        <v>5687.282999999999</v>
       </c>
       <c r="N148">
         <v>4111317</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7475,7 +7457,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7519,7 +7501,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7563,7 +7545,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7607,7 +7589,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7651,7 +7633,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7695,7 +7677,7 @@
         <v>4111317</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7733,13 +7715,13 @@
         <v>33.94</v>
       </c>
       <c r="M155">
-        <v>63053.053200000002</v>
+        <v>63053.0532</v>
       </c>
       <c r="N155">
         <v>4111317</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7783,7 +7765,7 @@
         <v>4113102</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7833,19 +7815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7862,7 +7839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7882,7 +7859,7 @@
         <v>32230.89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7902,7 +7879,7 @@
         <v>1525744.29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7922,7 +7899,7 @@
         <v>247134.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7942,7 +7919,7 @@
         <v>3584009.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7956,13 +7933,13 @@
         <v>129</v>
       </c>
       <c r="E6">
-        <v>10458.425999999999</v>
+        <v>10458.426</v>
       </c>
       <c r="F6">
         <v>1337423.51688</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7976,13 +7953,13 @@
         <v>130</v>
       </c>
       <c r="E7">
-        <v>10458.425999999999</v>
+        <v>10458.426</v>
       </c>
       <c r="F7">
-        <v>419801.21964000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>419801.21964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8002,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8016,13 +7993,13 @@
         <v>129</v>
       </c>
       <c r="E9">
-        <v>9023.3760000000002</v>
+        <v>9023.376</v>
       </c>
       <c r="F9">
-        <v>282341.43504000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>282341.43504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8036,13 +8013,13 @@
         <v>129</v>
       </c>
       <c r="E10">
-        <v>493.80102736385533</v>
+        <v>493.8010273638553</v>
       </c>
       <c r="F10">
-        <v>274420.04493691528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>274420.0449369153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8056,13 +8033,13 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <v>493.80102736385533</v>
+        <v>493.8010273638553</v>
       </c>
       <c r="F11">
-        <v>24240.692433291661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24240.69243329166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8076,13 +8053,13 @@
         <v>129</v>
       </c>
       <c r="E12">
-        <v>2883.5372200000002</v>
+        <v>2883.53722</v>
       </c>
       <c r="F12">
-        <v>714396.34625499998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>714396.346255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8096,13 +8073,13 @@
         <v>131</v>
       </c>
       <c r="E13">
-        <v>72.300000000000011</v>
+        <v>72.30000000000001</v>
       </c>
       <c r="F13">
-        <v>74009.895000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74009.895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8116,13 +8093,13 @@
         <v>129</v>
       </c>
       <c r="E14">
-        <v>737.01990000000001</v>
+        <v>737.0199</v>
       </c>
       <c r="F14">
         <v>1260458.803179</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8139,10 +8116,10 @@
         <v>16.2</v>
       </c>
       <c r="F15">
-        <v>7574.1479999999992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7574.147999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8159,10 +8136,10 @@
         <v>121.5501975</v>
       </c>
       <c r="F16">
-        <v>938303.10309532506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>938303.1030953251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8179,10 +8156,10 @@
         <v>89.92089</v>
       </c>
       <c r="F17">
-        <v>19242.171251100001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19242.1712511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8196,13 +8173,13 @@
         <v>131</v>
       </c>
       <c r="E18">
-        <v>364.69500000000011</v>
+        <v>364.6950000000001</v>
       </c>
       <c r="F18">
-        <v>151166.07750000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>151166.0775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8216,13 +8193,13 @@
         <v>131</v>
       </c>
       <c r="E19">
-        <v>364.69500000000011</v>
+        <v>364.6950000000001</v>
       </c>
       <c r="F19">
-        <v>40393.618200000012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40393.61820000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8236,13 +8213,13 @@
         <v>129</v>
       </c>
       <c r="E20">
-        <v>55.399387500000003</v>
+        <v>55.3993875</v>
       </c>
       <c r="F20">
-        <v>653282.31925912504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>653282.319259125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8256,13 +8233,13 @@
         <v>132</v>
       </c>
       <c r="E21">
-        <v>141598.89191038019</v>
+        <v>141598.8919103802</v>
       </c>
       <c r="F21">
-        <v>14603093.722717499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14603093.7227175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8276,13 +8253,13 @@
         <v>132</v>
       </c>
       <c r="E22">
-        <v>32.716500000000003</v>
+        <v>32.7165</v>
       </c>
       <c r="F22">
-        <v>5338.6784700000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5338.678470000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8299,10 +8276,10 @@
         <v>1614.509337</v>
       </c>
       <c r="F23">
-        <v>25059800.415365942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25059800.41536594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8316,13 +8293,13 @@
         <v>131</v>
       </c>
       <c r="E24">
-        <v>3522.9756152928012</v>
+        <v>3522.975615292801</v>
       </c>
       <c r="F24">
         <v>3381528.144338795</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8336,13 +8313,13 @@
         <v>131</v>
       </c>
       <c r="E25">
-        <v>5380.4474460000001</v>
+        <v>5380.447446</v>
       </c>
       <c r="F25">
-        <v>6391863.9568990786</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6391863.956899079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8362,7 +8339,7 @@
         <v>719741.76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8382,7 +8359,7 @@
         <v>118365.12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8402,7 +8379,7 @@
         <v>1015787.52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8416,13 +8393,13 @@
         <v>129</v>
       </c>
       <c r="E29">
-        <v>5.2574399999999999</v>
+        <v>5.25744</v>
       </c>
       <c r="F29">
-        <v>19639.587715199999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19639.5877152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8442,7 +8419,7 @@
         <v>1334946.08</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8456,13 +8433,13 @@
         <v>129</v>
       </c>
       <c r="E31">
-        <v>82.688000000000017</v>
+        <v>82.68800000000002</v>
       </c>
       <c r="F31">
         <v>120124.992</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8476,13 +8453,13 @@
         <v>129</v>
       </c>
       <c r="E32">
-        <v>5.6785049999999986</v>
+        <v>5.678504999999999</v>
       </c>
       <c r="F32">
-        <v>76328.136022949999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76328.13602295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8499,10 +8476,10 @@
         <v>937.72</v>
       </c>
       <c r="F33">
-        <v>918965.60000000009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>918965.6000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8516,13 +8493,13 @@
         <v>131</v>
       </c>
       <c r="E34">
-        <v>203.88319999999999</v>
+        <v>203.8832</v>
       </c>
       <c r="F34">
-        <v>378036.15177599998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378036.151776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8536,13 +8513,13 @@
         <v>131</v>
       </c>
       <c r="E35">
-        <v>138.29339999999999</v>
+        <v>138.2934</v>
       </c>
       <c r="F35">
         <v>275722.46625</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8559,10 +8536,10 @@
         <v>16601.7</v>
       </c>
       <c r="F36">
-        <v>424007.41799999989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>424007.4179999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8579,10 +8556,10 @@
         <v>3.48</v>
       </c>
       <c r="F37">
-        <v>30254.215199999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30254.2152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8602,7 +8579,7 @@
         <v>108416.5992</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8616,13 +8593,13 @@
         <v>129</v>
       </c>
       <c r="E39">
-        <v>7.0318125000000009</v>
+        <v>7.031812500000001</v>
       </c>
       <c r="F39">
         <v>14942.953153125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8636,13 +8613,13 @@
         <v>131</v>
       </c>
       <c r="E40">
-        <v>41.977499999999999</v>
+        <v>41.9775</v>
       </c>
       <c r="F40">
-        <v>31880.651924999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31880.651925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8659,10 +8636,10 @@
         <v>3.6</v>
       </c>
       <c r="F41">
-        <v>1372.9680000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1372.968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8676,13 +8653,13 @@
         <v>133</v>
       </c>
       <c r="E42">
-        <v>6.6000000000000014</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="F42">
         <v>792</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8702,7 +8679,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8716,13 +8693,13 @@
         <v>133</v>
       </c>
       <c r="E44">
-        <v>44.099999999999987</v>
+        <v>44.09999999999999</v>
       </c>
       <c r="F44">
-        <v>17061.848999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17061.849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8739,10 +8716,10 @@
         <v>6</v>
       </c>
       <c r="F45">
-        <v>17213.580000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17213.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8762,7 +8739,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -8782,7 +8759,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -8802,7 +8779,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8822,7 +8799,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8842,7 +8819,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8859,10 +8836,10 @@
         <v>5573.34</v>
       </c>
       <c r="F51">
-        <v>189159.15960000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>189159.1596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8879,10 +8856,10 @@
         <v>468</v>
       </c>
       <c r="F52">
-        <v>162288.35999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162288.36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8908,19 +8885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>134</v>
       </c>
@@ -8931,7 +8903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8941,11 +8913,11 @@
       <c r="C2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2">
-        <v>7727346.0889302054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>7727346.088930205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8955,11 +8927,11 @@
       <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="2">
-        <v>60406360.207373179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>60406360.20737318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8969,8 +8941,8 @@
       <c r="C4" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="2">
-        <v>162288.35999999999</v>
+      <c r="D4">
+        <v>162288.36</v>
       </c>
     </row>
   </sheetData>
@@ -8979,20 +8951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>139</v>
       </c>
@@ -9003,46 +8969,46 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>22171390.2950592</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
-        <v>24490807.012503751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>24490807.01250375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2">
-        <v>21633797.348740399</v>
+      <c r="D4">
+        <v>21633797.3487404</v>
       </c>
     </row>
   </sheetData>
@@ -9051,16 +9017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>142</v>
       </c>
@@ -9071,7 +9035,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9082,7 +9046,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>68295994.656303406</v>
+        <v>68295994.65630341</v>
       </c>
     </row>
   </sheetData>
@@ -9091,14 +9055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
@@ -9109,7 +9073,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9123,7 +9087,7 @@
         <v>22171390.2950592</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9134,10 +9098,10 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>24490807.012503751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24490807.01250375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9148,7 +9112,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>21633797.348740399</v>
+        <v>21633797.3487404</v>
       </c>
     </row>
   </sheetData>
@@ -9157,14 +9121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
@@ -9175,7 +9139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9186,7 +9150,7 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>68295994.656303406</v>
+        <v>68295994.65630341</v>
       </c>
     </row>
   </sheetData>
@@ -9195,14 +9159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
@@ -9213,7 +9177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9224,7 +9188,7 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>68295994.656303406</v>
+        <v>68295994.65630341</v>
       </c>
     </row>
   </sheetData>
@@ -9233,14 +9197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>155</v>
       </c>
@@ -9251,7 +9215,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9262,7 +9226,7 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>68295994.656303406</v>
+        <v>68295994.65630341</v>
       </c>
     </row>
   </sheetData>
